--- a/Excel Sheets/Yoga Session_students.xlsx
+++ b/Excel Sheets/Yoga Session_students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,21 @@
           <t>Roll Number</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Attendance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Attended Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +471,17 @@
           <t>2401AI02</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +494,17 @@
           <t>2401CB52</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +517,17 @@
           <t>2401CS69</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +540,17 @@
           <t>2401CS50</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +563,17 @@
           <t>2401cb59</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +586,17 @@
           <t>2402PC05</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +609,17 @@
           <t>2401CE60</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +632,17 @@
           <t>2403MC01</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +655,17 @@
           <t>2403MM04</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +678,17 @@
           <t>2403CB03</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +701,17 @@
           <t>2401CS22</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +724,17 @@
           <t>2401AI21</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +747,17 @@
           <t>2403ME07</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +770,17 @@
           <t>2401CE61</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +793,17 @@
           <t>2401CB11</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +816,17 @@
           <t>2401CT01</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +839,17 @@
           <t>2401CB53</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +862,17 @@
           <t>2402MT08</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +885,17 @@
           <t>2401AI33</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -684,6 +908,17 @@
           <t>2401cb05</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,6 +931,17 @@
           <t>2401MM36</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -708,6 +954,17 @@
           <t>2401ce64</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +977,17 @@
           <t>2101CS77</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -732,6 +1000,17 @@
           <t>2403EE03</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +1023,17 @@
           <t>2401ME55</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -756,6 +1046,17 @@
           <t>2403AI01</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -768,6 +1069,17 @@
           <t>2401ec01</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -780,6 +1092,17 @@
           <t>2401AI43</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -792,6 +1115,17 @@
           <t>2401CB09</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -804,6 +1138,17 @@
           <t>2401cs21</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -816,6 +1161,17 @@
           <t>2401MC22</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -828,6 +1184,17 @@
           <t>2401EC12</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -840,6 +1207,17 @@
           <t>2401CB66</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -852,6 +1230,17 @@
           <t>2401ph32</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -864,6 +1253,17 @@
           <t>2401MC44</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,6 +1276,17 @@
           <t>2401PH25</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -888,6 +1299,17 @@
           <t>2401cb27</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -900,6 +1322,17 @@
           <t>2401CS54</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -912,6 +1345,17 @@
           <t>2402PC01</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -924,6 +1368,17 @@
           <t>2401ME65</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -936,6 +1391,17 @@
           <t>2401ME75</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -948,6 +1414,17 @@
           <t>2403CS01</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -960,6 +1437,17 @@
           <t>2401me23</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -972,6 +1460,17 @@
           <t>2403CB01</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -984,6 +1483,17 @@
           <t>2401cs24</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -996,6 +1506,17 @@
           <t>2401CS51</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025-03-29 22:17:37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
